--- a/IPERKA/Nutzwertanalyse.xlsx
+++ b/IPERKA/Nutzwertanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Simon\Dokumente\TBZ\Module\Modul 431\Projekt_Website\IPERKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3EAA6E-DBCF-4798-8D35-0D888573C83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96711A5F-5373-4C87-B067-6C203D893DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{F240750C-1B8D-46EE-9D24-EFBEAF5B1FD5}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="13560" xr2:uid="{F240750C-1B8D-46EE-9D24-EFBEAF5B1FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Kriterien</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Layout2</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -130,11 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9810D-F1DF-47B3-AD44-56BBEC7F5CF6}">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
@@ -465,7 +472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,189 +492,192 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.05</v>
+      <c r="C4" s="4">
+        <v>0.125</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.1</v>
+      <c r="C5" s="4">
+        <v>6.25E-2</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0.1875</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.1</v>
+      <c r="C6" s="4">
+        <v>6.25E-2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.1</v>
+      <c r="C7" s="4">
+        <v>0.1875</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>0.5625</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.1</v>
+      <c r="C8" s="4">
+        <v>0.125</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.25</v>
+      <c r="C9" s="4">
+        <v>0.2084</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.83360000000000001</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.2084</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.2</v>
+      <c r="C10" s="4">
+        <v>0.125</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
+      <c r="C11" s="4">
+        <v>0.1041</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.41639999999999999</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.41639999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C4:C11)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D13">
-        <f>SUM(D4:D11)</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E4:E11)</f>
-        <v>2.8</v>
-      </c>
-      <c r="F13">
-        <f>SUM(F4:F11)</f>
-        <v>16</v>
+        <v>2.8125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
       <c r="G13">
         <f>SUM(G4:G11)</f>
-        <v>1.9</v>
+        <v>2.1873</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
